--- a/src/test/resources/exceldata/postmorbidity.xlsx
+++ b/src/test/resources/exceldata/postmorbidity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svatt\git\DieticianAPI-Hackathon\src\test\resources\Exceldata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>MorbidityName</t>
   </si>
@@ -163,12 +163,58 @@
   </si>
   <si>
     <t>10Tc12</t>
+  </si>
+  <si>
+    <t>1HY_1TC</t>
+  </si>
+  <si>
+    <t>2HY_2TC</t>
+  </si>
+  <si>
+    <t>3HY_3TC</t>
+  </si>
+  <si>
+    <t>4HY_4TC</t>
+  </si>
+  <si>
+    <t>5HY_5TC</t>
+  </si>
+  <si>
+    <t>6HY_6TC</t>
+  </si>
+  <si>
+    <t>7HY_7TC</t>
+  </si>
+  <si>
+    <t>8HY_8TC</t>
+  </si>
+  <si>
+    <t>9HY_9TC</t>
+  </si>
+  <si>
+    <t>10H_10T</t>
+  </si>
+  <si>
+    <t>1VA_1VB</t>
+  </si>
+  <si>
+    <t>2VA_2VB</t>
+  </si>
+  <si>
+    <t>3VA_3VB</t>
+  </si>
+  <si>
+    <t>4VA_4VB</t>
+  </si>
+  <si>
+    <t>5VA_5VB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196CE6F-435D-4F77-8460-EFB5280CE745}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F24"/>
@@ -528,10 +574,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -561,6 +607,9 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -575,6 +624,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -589,6 +641,9 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -603,6 +658,9 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -617,6 +675,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -631,6 +692,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -645,6 +709,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -659,6 +726,9 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -673,6 +743,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -686,6 +759,9 @@
       </c>
       <c r="D11" t="s">
         <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +772,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3409D224-3CA7-4CAE-A6D5-15463D81599D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
@@ -704,10 +780,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -737,6 +813,9 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -751,6 +830,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -765,6 +847,9 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -779,6 +864,9 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -792,6 +880,9 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +892,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AE82E4-000C-4B86-9B2B-9AC5C1FCFE8D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -809,10 +900,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -836,6 +927,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -844,6 +936,7 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -852,6 +945,7 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -860,6 +954,7 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -868,6 +963,7 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/exceldata/postmorbidity.xlsx
+++ b/src/test/resources/exceldata/postmorbidity.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>MorbidityName</t>
   </si>
@@ -607,9 +607,7 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -624,9 +622,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -641,9 +637,7 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -658,9 +652,7 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -675,9 +667,7 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -692,9 +682,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
+      <c r="E7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -709,9 +697,7 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -726,9 +712,7 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -743,9 +727,7 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -760,9 +742,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
+      <c r="E11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -813,9 +793,7 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -830,9 +808,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -847,9 +823,7 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -864,9 +838,7 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -881,9 +853,7 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
+      <c r="E6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
